--- a/source/xls/reydonsports/2-temp.xlsx
+++ b/source/xls/reydonsports/2-temp.xlsx
@@ -14,53 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>TR484</t>
-  </si>
-  <si>
-    <t>Precision Collapsible Corner Posts (Set of 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Set of 4. Supplied in a bag. Please note: flags are not included.
-</t>
-  </si>
-  <si>
-    <t>12.48 €</t>
-  </si>
-  <si>
-    <t>28.0 €</t>
-  </si>
-  <si>
-    <t>11.86 €</t>
-  </si>
-  <si>
-    <t>43 Unit(s) available</t>
-  </si>
-  <si>
-    <t>/shop/product/tr484-precision-collapsible-corner-posts-set-of-4-932?page=3&amp;category=126</t>
-  </si>
-  <si>
-    <t>/web/image/product.product/14224/image?unique=901a8f1</t>
-  </si>
-  <si>
-    <t>Football</t>
-  </si>
-  <si>
-    <t>9506999000</t>
-  </si>
-  <si>
-    <t>5027535140921</t>
-  </si>
-  <si>
-    <t>10.5cm X 50.0cm X 25.0cm</t>
-  </si>
-  <si>
-    <t>1.45kg</t>
-  </si>
-  <si>
-    <t>IN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Trade Price</t>
+  </si>
+  <si>
+    <t>SRP Price</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Commodity Code</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>Shipping Dimensions</t>
+  </si>
+  <si>
+    <t>Shipping Weight</t>
+  </si>
+  <si>
+    <t>Country of Origin</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Length</t>
   </si>
 </sst>
 </file>
@@ -392,57 +396,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A69:O69"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="69" spans="1:15">
-      <c r="A69" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O69" t="s">
+      <c r="O1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
